--- a/test_data/ReadData.xlsx
+++ b/test_data/ReadData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/newerzeidan/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/newerzeidan/IdeaProjects/backend_automation_5/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94631E6F-BA64-F848-AF5E-65A6EF347C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83219E0E-00FE-BE4D-8B93-0CE3175FE2F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{6DFDFD5B-5BF2-5245-9384-402CF0880607}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{6DFDFD5B-5BF2-5245-9384-402CF0880607}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -418,6 +418,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
